--- a/_Lessen_Overzicht_Smart_Technology.xlsx
+++ b/_Lessen_Overzicht_Smart_Technology.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arjan/Documents/GitHub/Onderwijs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A740075-38D4-824F-8347-05AF8CA0A2D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{310BFF78-5745-1142-8E2F-C8891155B948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4560" yWindow="3000" windowWidth="33600" windowHeight="20500" xr2:uid="{F0F2BE32-1B0D-664C-8E88-7F6A92F01488}"/>
+    <workbookView xWindow="0" yWindow="960" windowWidth="33600" windowHeight="20500" xr2:uid="{F0F2BE32-1B0D-664C-8E88-7F6A92F01488}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
   <si>
     <t>LEERDOELEN SMART TECHNOLOGY</t>
   </si>
@@ -55,9 +55,6 @@
     <t>Uren</t>
   </si>
   <si>
-    <t>lesstof</t>
-  </si>
-  <si>
     <t>Smartlab IOT</t>
   </si>
   <si>
@@ -67,12 +64,6 @@
     <t>lesstof 2022-2023</t>
   </si>
   <si>
-    <t>lesstof 2022 - 2023</t>
-  </si>
-  <si>
-    <t>Ontwerpen SE / TEKENEN-S</t>
-  </si>
-  <si>
     <t>Embedded Design</t>
   </si>
   <si>
@@ -82,44 +73,59 @@
     <t>L03P01 - Embedded Design deel 2</t>
   </si>
   <si>
-    <t>L03P01 - SmartLab IOT - MQTT - Theorie</t>
-  </si>
-  <si>
-    <t>L03P02 - SmartLab IOT - MQTT - Project</t>
-  </si>
-  <si>
     <t>L04P01 - Raspberry Pi - IOT 1</t>
   </si>
   <si>
     <t>L04P02 - Raspberry Pi - IOT 2</t>
   </si>
   <si>
-    <t>Herhalen boek</t>
-  </si>
-  <si>
     <t>L01P03 - Smartlab IOT - Python 1</t>
   </si>
   <si>
-    <t>L01P03 - Smartlab IOT - Python 2</t>
-  </si>
-  <si>
-    <t>L02P04 - Smartlab IOT - Python 4 - micropython</t>
-  </si>
-  <si>
     <t>L01P01 - Smartlab IOT - Flowcharts - Edublocks</t>
   </si>
   <si>
     <t>L01P02 - Smartlab IOT - Tinkercad - Arduino</t>
   </si>
   <si>
-    <t>L02P03 - Smartlab IOT - Python 3 - micropython</t>
+    <t>L02P03 - Smartlab IOT - Python 3 - micropython leds knoppen relais interrupts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L01P03 - Smartlab IOT - Python 2 functies - </t>
+  </si>
+  <si>
+    <t xml:space="preserve">L03P02 - SmartLab IOT -Displays </t>
+  </si>
+  <si>
+    <t>L02P04 - Smartlab IOT - Python 4 - Github Organiseren Sensoren</t>
+  </si>
+  <si>
+    <t>L03P01 - SmartLab IOT - MQTT - Organiseren</t>
+  </si>
+  <si>
+    <t>FlowchaRTA + BLOKKEN</t>
+  </si>
+  <si>
+    <t>Blokken elektronica</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Code Elektronica Pico</t>
+  </si>
+  <si>
+    <t>Pi - Nodered</t>
+  </si>
+  <si>
+    <t>Pi - ????</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -163,15 +169,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF00B050"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -186,19 +185,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -221,72 +208,53 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -609,485 +577,402 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M28"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="22.6640625" customWidth="1"/>
-    <col min="4" max="4" width="6" style="9" customWidth="1"/>
-    <col min="5" max="5" width="21.5" style="9" customWidth="1"/>
-    <col min="6" max="6" width="40.33203125" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" style="9" customWidth="1"/>
-    <col min="8" max="8" width="39.33203125" customWidth="1"/>
-    <col min="9" max="9" width="21.1640625" style="9" customWidth="1"/>
-    <col min="10" max="10" width="14.83203125" customWidth="1"/>
-    <col min="11" max="11" width="22.83203125" customWidth="1"/>
-    <col min="12" max="12" width="5.83203125" customWidth="1"/>
-    <col min="13" max="13" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="64.83203125" customWidth="1"/>
+    <col min="6" max="6" width="21.1640625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" customWidth="1"/>
+    <col min="8" max="8" width="22.83203125" customWidth="1"/>
+    <col min="9" max="9" width="5.83203125" customWidth="1"/>
+    <col min="10" max="10" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="92" x14ac:dyDescent="1">
+    <row r="1" spans="1:10" ht="92" x14ac:dyDescent="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-    </row>
-    <row r="4" spans="1:13" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+    </row>
+    <row r="4" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="K4" s="2"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="8" t="s">
+      <c r="E5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-    </row>
-    <row r="6" spans="1:13" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="6">
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+    </row>
+    <row r="6" spans="1:10" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
         <v>1</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-    </row>
-    <row r="7" spans="1:13" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+    </row>
+    <row r="7" spans="1:10" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="17">
+      <c r="D7" s="13">
         <v>40.5</v>
       </c>
-      <c r="H7" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7" s="28"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-    </row>
-    <row r="8" spans="1:13" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+    </row>
+    <row r="8" spans="1:10" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>2</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="17">
+      <c r="D8" s="13">
         <v>31.5</v>
       </c>
-      <c r="H8" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="I8" s="28"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-    </row>
-    <row r="9" spans="1:13" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E8" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+    </row>
+    <row r="9" spans="1:10" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>3</v>
       </c>
       <c r="C9" s="2"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="17">
+      <c r="D9" s="13">
         <v>28</v>
       </c>
-      <c r="H9" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="I9" s="28"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-    </row>
-    <row r="10" spans="1:13" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E9" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+    </row>
+    <row r="10" spans="1:10" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>4</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="I10" s="20"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-    </row>
-    <row r="11" spans="1:13" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="6">
+      <c r="C10" s="2"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+    </row>
+    <row r="11" spans="1:10" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
         <v>2</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-    </row>
-    <row r="12" spans="1:13" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+    </row>
+    <row r="12" spans="1:10" s="2" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="2">
         <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-    </row>
-    <row r="13" spans="1:13" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3">
+      <c r="D12" s="9"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="21"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+    </row>
+    <row r="13" spans="1:10" s="2" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="2">
         <v>2</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-    </row>
-    <row r="14" spans="1:13" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D13" s="9"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="21"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+    </row>
+    <row r="14" spans="1:10" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>3</v>
       </c>
       <c r="C14" s="2"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="17">
+      <c r="D14" s="13">
         <v>22.5</v>
       </c>
-      <c r="H14" s="20" t="s">
+      <c r="E14" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="I14" s="28"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
-    </row>
-    <row r="15" spans="1:13" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+    </row>
+    <row r="15" spans="1:10" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>4</v>
       </c>
       <c r="C15" s="2"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="17">
+      <c r="D15" s="13">
         <v>20</v>
       </c>
-      <c r="H15" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="I15" s="28"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
-    </row>
-    <row r="16" spans="1:13" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="6">
+      <c r="E15" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+    </row>
+    <row r="16" spans="1:10" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="5">
         <v>3</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
-    </row>
-    <row r="17" spans="1:13" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3">
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+    </row>
+    <row r="17" spans="1:10" s="2" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="2">
         <v>1</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
-    </row>
-    <row r="18" spans="1:13" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3">
+      <c r="D17" s="9"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="21"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+    </row>
+    <row r="18" spans="1:10" s="2" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="2">
         <v>2</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
-    </row>
-    <row r="19" spans="1:13" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D18" s="9"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="21"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+    </row>
+    <row r="19" spans="1:10" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19">
         <v>3</v>
       </c>
       <c r="C19" s="2"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="17">
+      <c r="D19" s="13">
         <v>24</v>
       </c>
-      <c r="H19" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I19" s="28"/>
-      <c r="J19" t="s">
-        <v>14</v>
-      </c>
-      <c r="L19" s="19"/>
-      <c r="M19" s="19"/>
-    </row>
-    <row r="20" spans="1:13" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E19" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" t="s">
+        <v>11</v>
+      </c>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+    </row>
+    <row r="20" spans="1:10" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>4</v>
       </c>
       <c r="C20" s="2"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="17">
+      <c r="D20" s="13">
         <v>32</v>
       </c>
-      <c r="H20" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I20" s="28"/>
-      <c r="J20" t="s">
-        <v>15</v>
-      </c>
-      <c r="L20" s="19"/>
-      <c r="M20" s="19"/>
-    </row>
-    <row r="21" spans="1:13" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="6">
+      <c r="E20" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+    </row>
+    <row r="21" spans="1:10" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="5">
         <v>4</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="19"/>
-    </row>
-    <row r="22" spans="1:13" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+    </row>
+    <row r="22" spans="1:10" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22">
         <v>1</v>
       </c>
       <c r="C22" s="2"/>
-      <c r="D22" s="10">
-        <v>20</v>
-      </c>
-      <c r="E22" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="F22" s="7"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="I22" s="20"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="19"/>
-    </row>
-    <row r="23" spans="1:13" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D22" s="13"/>
+      <c r="E22" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+    </row>
+    <row r="23" spans="1:10" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23">
         <v>2</v>
       </c>
       <c r="C23" s="2"/>
-      <c r="D23" s="10">
-        <v>22.5</v>
-      </c>
-      <c r="E23" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="F23" s="32"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="I23" s="20"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="19"/>
-    </row>
-    <row r="24" spans="1:13" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3">
+      <c r="D23" s="13"/>
+      <c r="E23" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+    </row>
+    <row r="24" spans="1:10" s="2" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="2">
         <v>3</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="19"/>
-      <c r="M24" s="19"/>
-    </row>
-    <row r="25" spans="1:13" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3">
+      <c r="D24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+    </row>
+    <row r="25" spans="1:10" s="5" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="5">
         <v>4</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="19"/>
-    </row>
-    <row r="26" spans="1:13" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+    </row>
+    <row r="26" spans="1:10" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="13"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="2"/>
       <c r="H26" s="2"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="19"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="L27" s="19"/>
-      <c r="M27" s="19"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="L28" s="19"/>
-      <c r="M28" s="19"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
